--- a/outcome/appendix/data/PHSMs/HCV.xlsx
+++ b/outcome/appendix/data/PHSMs/HCV.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">丙肝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>25795.9016832803</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>17287</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6206.13226610819</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +474,16 @@
         <v>22191.6002356628</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>9068</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10812.8248958811</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +506,16 @@
         <v>28027.3429847932</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>16718</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8848.88437648769</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +538,16 @@
         <v>26242.8126280942</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>20179</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3462.26876821653</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +570,16 @@
         <v>26560.2539545658</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>19821</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4003.89212370312</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +602,16 @@
         <v>25346.5357846776</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>20367</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2116.60402934119</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +634,16 @@
         <v>26342.6703449471</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>20520</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2837.61555069449</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +666,16 @@
         <v>26053.8970636805</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>22400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>551.5228095684</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +698,16 @@
         <v>24518.9134722523</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>21538</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-234.502503835356</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +730,16 @@
         <v>24722.6179055444</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>20067</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1331.0015690776</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +762,16 @@
         <v>25732.9977947935</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>20801</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1501.65558664234</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +794,16 @@
         <v>25234.7011939517</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>20438</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1263.89475515131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +826,16 @@
         <v>28082.3545602751</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>18258</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6048.23399616848</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +858,16 @@
         <v>24844.6979530354</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>14714</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6252.12449013468</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +890,16 @@
         <v>30663.5748880689</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>23776</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2876.1839707413</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +922,16 @@
         <v>28866.5178880655</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>22613</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2113.56836247014</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +954,16 @@
         <v>29174.8261753877</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>21254</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3656.19171795673</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +986,16 @@
         <v>27954.6797276281</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>20937</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2631.9036235948</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1018,16 @@
         <v>28946.5755464531</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>22940</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1502.9151449481</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1050,16 @@
         <v>28655.3591837591</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>20001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4035.82240382201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1082,16 @@
         <v>27119.4214637278</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>20125</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2263.79709041825</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1114,16 @@
         <v>27323.4180971708</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>19157</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3326.30116333121</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1146,16 @@
         <v>28335.1419467513</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>19858</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3529.95518089595</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1178,16 @@
         <v>27839.0491871723</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>20895</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1892.19434940492</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1210,16 @@
         <v>30665.0766740252</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>18704</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6687.53359042208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1242,16 @@
         <v>27431.2027418311</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>16733</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5318.42408438829</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1274,16 @@
         <v>33249.915728994</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>21722</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6015.48356499491</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1306,16 @@
         <v>31453.8355496457</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>17712</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8099.86795672375</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1338,16 @@
         <v>31764.0863121754</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>18720</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7275.49131221034</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1370,16 @@
         <v>30546.7050824988</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>20925</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3729.20321784841</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1402,16 @@
         <v>31542.0710871315</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>21867</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3661.21473920171</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1434,16 @@
         <v>31254.9319673798</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>21891</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3231.12199807561</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1466,16 @@
         <v>29723.5965097129</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>18740</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4734.09668467186</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1498,16 @@
         <v>29932.6511977055</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>16020</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7548.60075758481</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1530,16 @@
         <v>30949.8300995753</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>15057</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9416.25477514956</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
